--- a/medicine/Mort/Liste_des_pays_par_taux_de_mortalité_routière/Liste_des_pays_par_taux_de_mortalité_routière.xlsx
+++ b/medicine/Mort/Liste_des_pays_par_taux_de_mortalité_routière/Liste_des_pays_par_taux_de_mortalité_routière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_taux_de_mortalit%C3%A9_routi%C3%A8re</t>
+          <t>Liste_des_pays_par_taux_de_mortalité_routière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des pays par taux de mortalité routière classe les pays du monde selon le nombre de morts sur les routes dus principalement aux accidents de la route.
-D'après les statistiques de l'Organisation mondiale de la santé (OMS), les accidents de la circulation ont entraîné la mort d'environ 1,35 million de personnes en 2016 dans le monde[1].
+D'après les statistiques de l'Organisation mondiale de la santé (OMS), les accidents de la circulation ont entraîné la mort d'environ 1,35 million de personnes en 2016 dans le monde.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_taux_de_mortalit%C3%A9_routi%C3%A8re</t>
+          <t>Liste_des_pays_par_taux_de_mortalité_routière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des pays</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les données sont issues des différentes études statistiques de sécurité routière réalisées par l'Organisation mondiale de la santé (OMS) au cours du temps. Il est à noter que certaines données sont des estimations ou des projections, et qu'il peut y avoir des différences de définitions de la mortalité routière selon les pays[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les données sont issues des différentes études statistiques de sécurité routière réalisées par l'Organisation mondiale de la santé (OMS) au cours du temps. Il est à noter que certaines données sont des estimations ou des projections, et qu'il peut y avoir des différences de définitions de la mortalité routière selon les pays.
 </t>
         </is>
       </c>
